--- a/medicine/Mort/Nornes/Nornes.xlsx
+++ b/medicine/Mort/Nornes/Nornes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Nornes (terme du vieux norrois, pluriel nornir) de la mythologie nordique sont comparables aux Dises qui règlent le destin de l'ensemble des habitants des neuf mondes de la cosmogonie nordique[1].
-Bien que les Nornes soient assez nombreuses, d'après l'interprétation de Snorri Sturluson de la Völuspá, les trois plus importantes sont appelées Urd, Verdandi et Skuld et résident près du puits d'Urd, le puits du Destin. Elles en tirent l'eau et en arrosent l'arbre Yggdrasil afin que ses branches ne pourrissent jamais[2]. Les Nornes sont décrites comme trois puissantes jötunns dont l'arrivée a mis fin à l'âge d'or des dieux[2].
-En plus de ces trois Nornes, il existe de nombreuses autres Nornes, qui arrivent lorsqu'une personne naît afin de fixer son avenir[2]. Ces Nornes peuvent être bienveillantes ou malveillantes ; elles étaient considérées responsables respectivement des événements heureux ou malheureux de la vie[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Nornes (terme du vieux norrois, pluriel nornir) de la mythologie nordique sont comparables aux Dises qui règlent le destin de l'ensemble des habitants des neuf mondes de la cosmogonie nordique.
+Bien que les Nornes soient assez nombreuses, d'après l'interprétation de Snorri Sturluson de la Völuspá, les trois plus importantes sont appelées Urd, Verdandi et Skuld et résident près du puits d'Urd, le puits du Destin. Elles en tirent l'eau et en arrosent l'arbre Yggdrasil afin que ses branches ne pourrissent jamais. Les Nornes sont décrites comme trois puissantes jötunns dont l'arrivée a mis fin à l'âge d'or des dieux.
+En plus de ces trois Nornes, il existe de nombreuses autres Nornes, qui arrivent lorsqu'une personne naît afin de fixer son avenir. Ces Nornes peuvent être bienveillantes ou malveillantes ; elles étaient considérées responsables respectivement des événements heureux ou malheureux de la vie.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'origine du nom « nornes » est incertaine ; il peut dériver d'un mot signifiant signifiant « tresser », et se référer ainsi au fait qu'elles tissent les fils du destin[2]. Bek-Pedersen suggère que le mot norn a un lien avec le mot dialectal suédois norna (nyrna), un verbe qui signifie « communiquer secrètement ». Cette interprétation se rapporte à la perception des Nornes comme des figures obscures, qui ne révèlent réellement leurs secrets fatidiques aux gens qu'au fur et à mesure que leur destin se réalise[3].
-Les noms de Verdandi (Verðandi en vieux norrois) et d'Urd (Urðr en vieux norrois) sont issus du verbe vieux norrois verða, dont le sens est « devenir »[4]. Alors que « Urðr » est dérivé de la forme passée (« ce qui est advenu »), « Verðandi » vient de la forme présent (« ce qui est en train de se dérouler »). Le nom de Skuld est, lui, issu du verbe vieux norrois skole/skulle, dont le sens est « devrait arriver »[2],[5]. « Skuld » prend donc la signification de « ce qui devrait arriver », au sens d'obligation et non de probabilité[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine du nom « nornes » est incertaine ; il peut dériver d'un mot signifiant signifiant « tresser », et se référer ainsi au fait qu'elles tissent les fils du destin. Bek-Pedersen suggère que le mot norn a un lien avec le mot dialectal suédois norna (nyrna), un verbe qui signifie « communiquer secrètement ». Cette interprétation se rapporte à la perception des Nornes comme des figures obscures, qui ne révèlent réellement leurs secrets fatidiques aux gens qu'au fur et à mesure que leur destin se réalise.
+Les noms de Verdandi (Verðandi en vieux norrois) et d'Urd (Urðr en vieux norrois) sont issus du verbe vieux norrois verða, dont le sens est « devenir ». Alors que « Urðr » est dérivé de la forme passée (« ce qui est advenu »), « Verðandi » vient de la forme présent (« ce qui est en train de se dérouler »). Le nom de Skuld est, lui, issu du verbe vieux norrois skole/skulle, dont le sens est « devrait arriver »,. « Skuld » prend donc la signification de « ce qui devrait arriver », au sens d'obligation et non de probabilité.
 Toutefois, certains auteurs considèrent qu'il n'existe pas de fondation dans la mythologie nordique pour la théorie de l'association exclusive de chaque Norne avec le passé, le présent ou le futur, mais que les trois, considérées dans leur ensemble, représentent la destinée, intriquée dans le cours du temps.
 D'autres considèrent qu'elles travaillent toutes les trois le futur, mais qu'elles ont chacune une spécialisation. Urðr s'occupe de l'influence du passé sur le futur, Verðandi s'occupe de l'influence du présent sur le futur, Skuld s'occupe de l'influence des évênements futurs sur d'autres évênements, également à venir.
 </t>
@@ -547,7 +561,9 @@
           <t>Fonctions et attributs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Nornes vivent sous la protection du grand Yggdrasil, l'arbre monde au centre du cosmos, où elles gravent le destin de chaque enfant. Ainsi qu'il est dit dans la Völuspá (citée plus bas), elles le gravent sur du bois (sur des bâtonnets d'après certaines traductions). Il est généralement supposé qu'elles utilisent pour cela l'alphabet des Runes.
 Ainsi, tout est prédéfini au sens des Nornes : même les dieux possèdent leur propre destin, bien que les Nornes ne les laissent pas l'apercevoir. L'opinion tranchée des dieux sur le fait même qu'un pouvoir existe en dehors de leur contrôle et les implications qui en découlent — ils sont mortels eux aussi — sont les thèmes majeurs de la littérature sur la mythologie nordique.
@@ -579,7 +595,9 @@
           <t>Darradtharljodth</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le Darradtharljodth, à la fin de la saga de Njáll le Brûlé, on peut lire une description sommaire des Nornes et de leur travail :
 « Dörrud vint à la maison, et regarda par une fente qui était là. Il vit que c'étaient des femmes qui étaient dedans, auprès d'un métier à tisser. Ce métier avait des têtes d'hommes en guise de poids, et des boyaux humains, pour trame et pour fil. Les montants du métier étaient des épées, et les navettes, des flèches.
@@ -618,10 +636,12 @@
           <t>Équivalents dans les autres mythologies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Nornes peuvent être comparées aux Völvas, tisseuses de paix dans la mythologie germanique.
-R. Simek[7] et R. Boyer[8] les rapprochent par certains aspects des Moires de la mythologie grecque et des Parques de la mythologie romaine. Elles sont en effet souvent décrites sous les traits de « fileuses de destins » (et non de « tisseuses »).
+R. Simek et R. Boyer les rapprochent par certains aspects des Moires de la mythologie grecque et des Parques de la mythologie romaine. Elles sont en effet souvent décrites sous les traits de « fileuses de destins » (et non de « tisseuses »).
 On retrouve également, à la fin de La République de Platon, le mythe d'Er le Pamphylien où la déesse Nécessité a trois filles (Lachésis, Clotho et Atropos) qui tissent des « modèles de vie » à partir d'un fuseau qu'elle-même tient entre ses mains.
 </t>
         </is>
@@ -652,6 +672,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
